--- a/data/Informes.xlsx
+++ b/data/Informes.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Documents/github/desiertos/side/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399600FF-9206-A94E-AA00-B0C3462F3CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7126BA31-6E41-9343-A861-30369EAE1427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="textos_informes" sheetId="1" r:id="rId1"/>
     <sheet name="original" sheetId="2" r:id="rId2"/>
     <sheet name="transposto" sheetId="3" r:id="rId3"/>
+    <sheet name="transposto2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="414">
   <si>
     <t>provincia</t>
   </si>
@@ -1547,12 +1548,608 @@
   <si>
     <t>resto-cordoba</t>
   </si>
+  <si>
+    <t>Por Emiliano Venier</t>
+  </si>
+  <si>
+    <t>La informalidad se traduce en periodistas que gestionan pautas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> particularmente en los de Cerrillos y La Caldera. En</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> las problemáticas de los</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lo que derivaría en una precaria cobertura de información</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> al igual que en los del área metropolitana de Salta por sus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> demográficas y culturales que sustentan buenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> se esperaría una mayor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Orán y Rosario de Lerma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aunque también se verificó la</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pero en ellas la estructura de trabajadores de</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lo que predomina es la conexión mediante cable y sistema satelital.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> las personas se apropian de las diferentes plataformas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> principalmente Facebook y Youtube</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> y producen o ponen en</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> e información nacional o provincial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> su desarrollo es</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> y su impacto en las audiencias no es significativo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> provincial y</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> y el</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> en general</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> los medios prácticamente no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sino que</t>
+  </si>
+  <si>
+    <t>Rosario y sur de Santa Fe</t>
+  </si>
+  <si>
+    <t>Centro y norte de Santa Fe</t>
+  </si>
+  <si>
+    <t>Lejos de la ciudad principal, la radio sigue siendo vital para la comunicación de los vecinos</t>
+  </si>
+  <si>
+    <t>Precariedad laboral y reticencia a informar sobre la pauta oficial</t>
+  </si>
+  <si>
+    <t>Alta presencia del Estado y conectividad desigual</t>
+  </si>
+  <si>
+    <t>La gran ciudad fagocita la agenda informativa y la atención del resto del área</t>
+  </si>
+  <si>
+    <t>Las noticias locales escasean en las ciudades pequeñas</t>
+  </si>
+  <si>
+    <t>La agenda informativa gira alrededor del mensaje estatal</t>
+  </si>
+  <si>
+    <t>Aumentan los portales, pero escasean las noticias locales</t>
+  </si>
+  <si>
+    <t>Las noticias locales narran principalmente la vida de la capital</t>
+  </si>
+  <si>
+    <t>Por Agostina Montaño</t>
+  </si>
+  <si>
+    <t>Por Pablo Oro</t>
+  </si>
+  <si>
+    <t>Por Alfredo Fernández</t>
+  </si>
+  <si>
+    <t>Juan Chiummiento / Lis Mariani</t>
+  </si>
+  <si>
+    <t>Por Thamina Habichayn</t>
+  </si>
+  <si>
+    <t>Por Fátima Morales</t>
+  </si>
+  <si>
+    <t>Por Gabriela Bersier</t>
+  </si>
+  <si>
+    <t>Por Alba Emilia Barbeito</t>
+  </si>
+  <si>
+    <t>Para poder dar cuenta del ecosistema de medios en la provincia de Salta partimos de asumir una primera distinción entre el departamento Capital donde se encuentra la ciudad de Salta y el resto de los departamentos; una segunda distinción se puede establecer entre las ciudades cabeceras de departamento y el resto de los municipios que lo integran, y una tercera diferenciación la encontramos entre departamentos con mayor población urbana (Rosario de Lerma, Cerrillos, Rosario de la Frontera, Metán, Orán, San Martín) y aquellos con poblados rurales dispersos.</t>
+  </si>
+  <si>
+    <t>La provincia de San Juan está ubicada al centro oeste de la Argentina; tiene una población de 680.427 habitantes y está dividida en 19 departamentos, cada uno con su respectivo municipio. La mayoría de la población se concentra en el Gran San Juan, que abarca los departamentos Capital, Santa Lucía, Rivadavia, Rawson y Chimbas. De la misma manera están distribuidos los medios de comunicación más grandes de la provincia. La capital sanjuanina concentra a los canales de televisión, diarios y radios que pueden llegar a todo el territorio.</t>
+  </si>
+  <si>
+    <t>La provincia de San Luis tiene 9 departamentos, y 65 municipios o comisiones municipales. Según los datos del censo 2010, la provincia contaba con 432.310 (hoy estimada en más de medió millón) de pobladores, de los cuales 383.340 correspondían a la población urbana y 48.970 a la rural. Entre los departamentos Juan Martín de Pueyrredón y General Pedernera concentran más del 70% de la población: sus ciudades cabecera, San Luis (capital) y Villa Mercedes, respectivamente, son las de mayor cantidad de habitantes de la provincia. Estas dos ciudades concentran la mayor cantidad de medios. Por una cuestión metodológica, se encuestaron 12 de la capital y 11 de Villa Mercedes.</t>
+  </si>
+  <si>
+    <t>La aplicación de la encuesta a los diferentes responsables de los medios de comunicación de la provincia originó diversas opiniones y no pasó inadvertida. Algunos celebraron la posibilidad de hablar -luego de mucho tiempo- y dejar por escrito situaciones históricas de exclusión en el acceso a la publicidad oficial por tener opiniones divergentes con el Gobierno provincial. Otros directamente respondieron sin emitir opinión y algunos eligieron no responder, aunque en un principio habían dicho que sí lo harían.</t>
+  </si>
+  <si>
+    <t>Del mismo modo que sucede en otras provincias, en el sur de Santa Fe existe un distrito que se diferencia claramente del resto: se trata del departamento Rosario, que concentra no sólo un gran número de medios (algo que, en todo caso, está relativamente acorde a su población), sino también a los de mayor “calidad” desde el punto de vista laboral. Por ello se entiende empresas que tienen a sus empleados en relación de dependencia y donde los periodistas se dedican exclusivamente a la tarea periodística. Pero basta con salir de la ciudad para que esta realidad sea absolutamente distinta.</t>
+  </si>
+  <si>
+    <t>Con 133.007 kilómetros cuadrados, Santa Fe es la décima provincia del país en términos de superficie. Su larga extensión despliega departamentos muy distintos entre sí. Desde el centro hacia el norte se aprecian una mayor cantidad de distritos con más territorio y menos población, algo que se relaciona directamente con la actividad agrícola. Ello impacta en las características y la distribución de los medios de comunicación, que se concentran en las ciudades principales de distritos como La Capital, Las Colonias, Castellanos, San Justo, San Cristóbal y San Javier. El número disminuye de modo ostensible en General Obligado, Garay, 9 de Julio y Vera.</t>
+  </si>
+  <si>
+    <t>Los medios más antiguos y tradicionales siguen siendo fuente permanente de consulta informativa en toda la provincia. Sin embargo, en las localidades más alejadas de las ciudades principales, los periódicos digitales, impresos y -en especial- las radios, adquieren peso por su contenido local y regional.</t>
+  </si>
+  <si>
+    <t>El universo de medios de comunicación de la provincia de Tierra del Fuego incluye a actores tradicionales, y a formatos novedosos y multiplataforma que cubren en forma continua la agenda de las ciudades -Río Grande, Tolhuin y Ushuaia-. Hay cinco diarios de circulación provincial, uno de ellos de distribución gratuita: todos tienen sus versiones digitales.</t>
+  </si>
+  <si>
+    <t>La investigación de los desiertos informativos tuvo lugar en Tucumán durante los últimos meses de 2020 y principios de 2021. Fue la jurisdicción elegida para iniciar la exploración del fenómeno en el país y probar la herramienta diseñada para recopilar los datos. Los resultados obtenidos en esta provincia permitieron hacer ajustes y sentaron las bases para continuar la investigación en los 23 distritos restantes de la Argentina.</t>
+  </si>
+  <si>
+    <t>Una segunda caracterización que podemos establecer es por tamaño de estructura y cobertura del proyecto. En esta clasificación encontramos como categorías los “medios grandes” que son los tradicionales diarios, canales de televisión y radios AM con una nutrida planta de profesionales (de entre 10 a 20 periodistas), y con una cobertura amplia en términos de audiencia y de territorio. En segundo lugar, están los medios de estructuras medianas como radios FM, canales de televisión de aire o cable, y medios gráficos impresos y digitales con una penetración en audiencias segmentadas y coberturas que alcanzan a las localidades del área metropolitana de Salta. En tercer lugar aparecen los proyectos periodísticos más pequeños, con menos de cuatro periodistas en el plantel hasta medios individuales con alcance local, o una audiencia muy específica y acotada.</t>
+  </si>
+  <si>
+    <t>En los departamentos alejados de la ciudad principal, como Iglesia, Valle Fértil, San Martín y 25 de Mayo, la cantidad de medios disminuye drásticamente, del mismo modo que la cantidad de periodistas que emplea cada proyecto periodístico. Un caso distinto es el de Caucete, una localidad alejada del Gran San Juan que, sin embargo, presenta 15 medios de comunicación entre radios, diarios digitales y canales de televisión.</t>
+  </si>
+  <si>
+    <t>En la capital tienen asiento los dos principales medios de la provincia, LV 90 Canal 13, el único canal de aire, de carácter estatal, y el Diario de la República, único medio gráfico, que pertenece al grupo empresario de la familia gobernante desde el inicio de la democracia: su directora es la hija del gobernador Alberto Rodríguez Saá. Entre el canal y el diario emplean casi al 40% de los periodistas de medios incluidos en esta investigación y se destacan del resto en cuanto a las condiciones laborales aunque presentan una limitación editorial porque siguen la línea oficial del Gobierno de la Provincia. También en la capital provincial se asienta un importante número de radios, entre las que sobresale FM Popular, con una buena planta de periodistas y una importante cobertura de aire. También hay dos empresas de TV por cable con contenido periodístico propio.</t>
+  </si>
+  <si>
+    <t>Muy pocos de los que no respondieron argumentaron su posición. Pero quedó en evidencia el miedo a expresar opiniones diferentes y a dejar por escrito determinada información, aunque fuere para una encuesta nacional que no persigue juzgar a nadie por sus pensamientos u opiniones, sino exclusivamente tratar de recopilar datos sobre el ecosistema de la información periodística.</t>
+  </si>
+  <si>
+    <t>Un dato que vale la pena subrayar es el hecho de que los medios rosarinos son consumidos por quienes residen en Rosario y, también, por gran parte de la población de la zona sur. Por ejemplo: un habitante de Pavón Arriba -departamento Constitución- visitará un portal rosarino antes que uno de su propio departamento. Ese fenómeno resulta relevante a la luz de que la provincia cuenta con 157 ciudades distribuidas en 9 departamentos, es decir, hay muchas localidades al interior de cada uno de estos. Presumiblemente ello podría deberse a algo que por la propia naturaleza de la investigación quedó fuera de estudio, pero que merece la pena atender en el futuro, y es que en la mayoría de las localidades de Santa Fe predominan las radios FM que, en principio, se dedican a la reproducción de música y que, quizá, repasan los titulares de los medios escritos.</t>
+  </si>
+  <si>
+    <t>Los medios que más abundan en el centro y norte de la provincia son los portales digitales de noticias y las estaciones de radios. Las webs son más jóvenes que las radios, pero en general todas cuentan con perfiles de Facebook. La mayoría de los portales digitales están vinculados a un diario, una radio o un canal de televisión. Hay escasa presencia de medios exclusivamente digitales.</t>
+  </si>
+  <si>
+    <t>Es sorprendente la cantidad de radios que existen, aunque la producción noticiosa es muy escasa. La mayoría de ellas cuenta con uno o dos periodistas, lo que dificulta la tarea de recolección y difusión de datos. No obstante, se las ingenian para subsistir. Buena parte del contenido de los medios de las ciudades y localidades del "interior" reproduce el de los medios dominantes y el de las oficinas de comunicación del Gobierno. En los medios gráficos esto se puede apreciar mejor, ya que las reproducciones de los mensajes oficiales son, en ocasiones, textuales.</t>
+  </si>
+  <si>
+    <t>En el caso de las estaciones radiales, el espectro es aún más amplio, con producciones locales y propias en la mayoría de los casos; producciones independientes a través de la cesión de espacios y dos emisoras de Radio Nacional, una situada en Ushuaia y otra en la ciudad de Río Grande, además de la radio que pertenece a la Universidad Nacional de Tierra del Fuego (UNTDF). Por otra parte, en la provincia hay cuatro canales de televisión, dos estatales y dos privados.</t>
+  </si>
+  <si>
+    <t>Este desembarco sin experiencia previa dejó numerosos aprendizajes, y empezó a esclarecer la incertidumbre y los interrogantes que generó el objetivo de desarrollar un proyecto inédito en el país. Tucumán pareció un buen lugar para inaugurar la búsqueda de desiertos por motivos prácticos y teóricos. Ocurre que aquí reside la coordinadora periodística del programa, Irene Benito. Y, si bien se trata de la provincia más pequeña del país, resulta también la de mayor densidad demográfica. Como corazón geográfico del Noroeste Argentino, presenta características culturales, económicas y sociales que la distinguen en la región. Es, además, la jurisdicción con más amplia trayectoria universitaria de la zona y un reducto acreditado de periodismo local. De este micromundo salieron reputadas figuras del oficio desde Juan Bautista Alberdi a Tomás Eloy Martínez.</t>
+  </si>
+  <si>
+    <t>El departamento Capital alberga un frondoso y diverso bosque de proyectos periodísticos. En ese ecosistema interactúan medios grandes, medianos y pequeños. Un aspecto que generó cierto asombro fue la escasa presencia de medios y de periodistas en los departamentos próximos a la Capital, particularmente en los de Cerrillos y La Caldera. En principio podría parecer que las necesidades informativas del área metropolitana de Salta estarían cubiertas por el diverso ecosistema de medios de la ciudad capital. Sin embargo, las problemáticas de los departamentos de ese ámbito no son cubiertas por los medios capitalinos, lo que derivaría en una precaria cobertura de información local.</t>
+  </si>
+  <si>
+    <t>Las estaciones de radio predominan en las comunidades más distantes. En ellas, la información de servicio para el vecino es primordial. En estos medios, el 50% del contenido está vinculado a la vida de los municipios donde tienen asiento. La mayoría de las emisoras de estos lugares nació para transmitir información parroquial y, luego, incorporaron otro tipo de información. En las zonas de la precordillera de la provincia, por ejemplo, la radio sigue siendo una forma de comunicación entre los pobladores: son frecuentes los mensajes relativos al manejo de los animales; a pedidos de solidaridad y a asuntos domésticos. En estos lugares fue necesario hacer la encuesta de forma telefónica.</t>
+  </si>
+  <si>
+    <t>En Villa Mercedes sucede algo similar: aunque no existen medios impresos (hay una corresponsalía de El Diario de la República), sí hay un número importante de radios y dos canales de TV por cable con contenido informativo local.</t>
+  </si>
+  <si>
+    <t>Esta encuesta también despertó las ganas de hablar de parte de varios propietarios de medios que señalaron -entre otros inconvenientes- la falta de recursos humanos calificados para ejercer el periodismo y, a la vez, la necesidad de contar sus propias historias de vida. Otros cuestionaron la presencia de FOPEA ya que no compartían la posición de esa organización.</t>
+  </si>
+  <si>
+    <t>Mientras todos los medios rosarinos declararon tener al menos cinco periodistas en sus planteles, en los ocho departamentos restantes de la zona sur únicamente seis medios detectados exhiben esa característica. El 20% de los medios “no-rosarinos” dispone de una sola persona que, además de hacer las veces de periodista, se encarga de otras tareas relativas a la administración. Resulta muy difícil plantear un medio con calidad y diversidad informativa con estas condiciones.</t>
+  </si>
+  <si>
+    <t>La pauta privada aparece como el sostén principal de los medios, aunque genera dudas el hecho de que en la mayoría de los casos no fue posible establecer qué porcentaje del ingreso total genera la pauta oficial. Muchos dueños y responsables de pequeños medios refirieron fuera de la encuesta que la pandemia del coronavirus golpeó sus economías y dificulta el mantenimiento de las organizaciones.</t>
+  </si>
+  <si>
+    <t>En las zonas rurales, la radio mantiene su liderazgo. Las encuestas revelan que no sólo difunde información de interés general, sino también propia de aquellas zonas donde la señal de teléfono e internet es escasa.</t>
+  </si>
+  <si>
+    <t>La proliferación de portales de noticias es un fenómeno que creció en la última década sobre la base de la publicidad institucional de los distintos organismos legislativos y ejecutivos de las tres ciudades. Estos medios fueron difíciles de abordar porque no resultó sencillo encontrar a sus editores responsables -en algunos supuestos no había ni siquiera un correo electrónico de contacto- y porque luego se negaron a participar del sondeo. Es evidente que estas webs tienen ingresos significativos de parte del Estado.</t>
+  </si>
+  <si>
+    <t>El hecho de trabajar en medios de comunicación en San Miguel de Tucumán facilitó la tarea de contacto con los actores del ecosistema informativo de la zona. En el caso de los municipios del interior se apeló a la siguiente estrategia: buscar y dialogar con los directores de comunicación pública de cada municipalidad para que ellos abrieran las puertas de los medios de sus respectivos municipios. La velocidad de las respuestas fue variada, pero, en general, hubo más colaboración que la esperada. Algunos representantes de los medios completaron inmediatamente el formulario, y otros se demoraron entre tres y cinco días, lo que obligó a reforzar el pedido mediante un llamado de teléfono.</t>
+  </si>
+  <si>
+    <t>Otro aspecto que sorprendió fue la también escasa cantidad de medios y de periodistas en los departamentos de Metán y Rosario de la Frontera. En estos departamentos, al igual que en los del área metropolitana de Salta por sus características económicas, demográficas y culturales que sustentan buenas condiciones para el desarrollo del periodismo local, se esperaría una mayor presencia de esta actividad. Donde sorprendió la cantidad y diversidad de medios fue en los departamentos San Martín, Orán y Rosario de Lerma.</t>
+  </si>
+  <si>
+    <t>La pauta oficial se dirige de un modo intenso a financiar los medios del Gran San Juan. Esto se ve reflejado en la cantidad de periodistas que las empresas de la Capital contratan; los sueldos más elevados que pagan y el hecho de que “blanquean” el empleo de la mayoría de los trabajadores. En los departamentos alejados la radio se hace “a pulmón”, a veces con un solo periodista por emisora, que trabaja por la comisión que obtiene de las ventas de publicidad.</t>
+  </si>
+  <si>
+    <t>Otra particularidad de San Luis es que sus cabeceras de departamento no siempre son las localidades más importantes en cuanto a la actividad económica o cantidad de población. Tal el caso de Junín, donde la localidad más importante es Villa de Merlo, y Chacabuco, donde Tilisarao tiene mayor relevancia que Concarán, incluso en cantidad de medios. En ambos casos hay cercanía entre las localidades (entre 10 y 20 km). Villa de Merlo y Tilisarao, además de duplicar en cantidad de radios a las cabeceras, también cuentan con el servicio de TV por cable con contenido informativo local.</t>
+  </si>
+  <si>
+    <t>La situación del empleo en la provincia (mayoritaria relación de dependencia con el Estado) se replica en la gran cantidad de medios de comunicación que dependen de la pauta publicitaria que administra el Gobierno de turno. Muchos de los trabajadores de los medios son empleados públicos con dependencia de los gobiernos municipales, provinciales o nacional.</t>
+  </si>
+  <si>
+    <t>También llama la atención la forma de contratación de los periodistas. Sólo 19 de 67 medios encuestados registraron la relación de dependencia, es decir, el 28% del total. Al analizar pormenorizadamente este porcentaje se obtiene que hay un periodista “en blanco” en uno de cada cinco medios con 15 o menos años de antigüedad, en tanto que en los medios de más de 15 años de antigüedad esa cifra se duplica. Nueve de esos 19 medios se encuentran en el departamento Rosario.</t>
+  </si>
+  <si>
+    <t>En las dos grandes ciudades del centro y norte, Santa Fe y Rafaela, hay radios universitarias, un tipo diferente de medio que vale la pena destacar. En los lugares más pequeños aparecen los medios a cargo de mutuales y cooperativas. Los temas referidos a emprendedores y energías renovables son escasamente abordados por las agendas informativas. Los medios situados en ciudades chicas tienden a contentarse con la reproducción de información de índole provincial o nacional. En Santa Fe marcan la cancha, entre otros, La Capital, Aire de Santa Fe, Rosario 3 y El Litoral</t>
+  </si>
+  <si>
+    <t>En las ciudades cabecera de Departamento, la influencia del Estado municipal es bastante evidente, no sólo a través de la pauta, sino por los medios pertenecientes a su estructura. En el caso de las radios municipales (medio predominante), estas disponen de mayor capacidad para la producción informativa. Si bien los temas de la agenda exceden las actividades gubernamentales, ninguno está fuera de la línea oficial.</t>
+  </si>
+  <si>
+    <t>La misma falta de cooperación hubo en las oficinas de comunicación del Concejo Deliberante de Río Grande; de las municipalidades de Ushuaia, Tolhuin y Río Grande, y del Gobierno de la provincia. No hubo una explicación para la decisión de no brindar datos sobre los medios de comunicación que podría haber sido de mucha utilidad a la hora de determinar los criterios de distribución de la pauta oficial.</t>
+  </si>
+  <si>
+    <t>Estos intercambios revelaron las inquietudes de los referentes de los medios. Algunos tenían temor de brindar cierta información referida a la publicidad oficial o a la forma de relación laboral que tenían los periodistas. Otros consultaron si habría algún beneficio por participar en la encuesta. Fue necesario, entonces, explicar claramente de qué se trataba el proyecto y cuáles eran sus objetivos.</t>
+  </si>
+  <si>
+    <t>Finalmente se corroboraron las sospechas de los desiertos informativos en los departamentos con mayor población rural. Aquí el medio local que predomina es la radio municipal con dos a tres periodistas, aunque también se verificó la presencia de radios privadas, pero en ellas la estructura de trabajadores de prensa es más precaria. Los requerimientos informativos en estos territorios son cubiertos por la radio AM que emite desde Salta. En el caso de la televisión, lo que predomina es la conexión mediante cable y sistema satelital.</t>
+  </si>
+  <si>
+    <t>En el Departamento Belgrano su cabecera no tiene medios de comunicación, pero otras localidades con mucha más actividad económica y población, como Nogolí y Villa de la Quebrada, sí disponen al menos de una radio. En este departamento se incluyó en la muestra un portal web cuya cobertura informativa abarca a todas las localidades de Belgrano. Lo mismo se consideró con un portal web del Departamento Ayacucho con asiento en Quines, pero con información departamental. También resultó excepcional incorporar un programa de TV de la localidad de Tilisarao en el Departamento Chacabuco por la influencia en la localidad cabecera ubicada a pocos kilómetros.</t>
+  </si>
+  <si>
+    <t>Río Gallegos y Caleta Olivia son las dos ciudades que concentran a la mayoría de la población, y por ende, las que presentan la mayor cantidad de medios de comunicación. Aquí la misma diversidad de medios genera que haya diferentes voces para todos los públicos. En términos de la investigación “frondosos bosques informativos”, pero la mayoría de ellos con un denominador común: la disputa por la pauta publicitaria oficial.</t>
+  </si>
+  <si>
+    <t>En cuanto a la pauta oficial y con las reservas que corresponde guardar respecto de este aspecto sensible, de la encuesta surgió que menos del 5% de los consultados consideró que la pauta oficial significaba un 50% o más de sus ingresos corrientes. A diferencia de otras provincias, en Santa Fe no existen de manera generalizada medios propios de los gobiernos locales. En la enorme mayoría de los casos, los proyectos periodísticos tienen que ver con emprendimientos privados de diversa índole. En muchos casos, la comunicación de los municipios y comunas se canaliza a través de las redes sociales oficiales (Facebook, fundamentalmente).</t>
+  </si>
+  <si>
+    <t>Fuera de Santiago y La Banda, las pautas publicitarias tienen montos que se consideran irrisorios. Los responsables afirman que las sostienen para cubrir parte del mantenimiento del medio o el pago de algún servicio, como la energía eléctrica, en el caso de las radios.</t>
+  </si>
+  <si>
+    <t>En relación a los desiertos informativos específicamente, el trabajo corroboró que en muchos casos, en particular en portales de noticias, falta producción propia, original y con contenido local que sirva a los lectores y lectoras para conocer su realidad más próxima. En general, las gacetillas de prensa de organismos oficiales, tanto legislativos como gubernamentales, inundan las webs locales. Lo mismo sucede con los diarios en papel, aunque estos aún brindan cobertura de hechos policiales a modo de producción propia. Además, son muy pocos los medios fueguinos con perspectiva de género. Se diría que al periodismo le falta capacitación en derechos humanos, aunque de a poco se empiezan a percibir algunos cambios.</t>
+  </si>
+  <si>
+    <t>De las respuestas obtenidas se desprende que, en Tucumán, el medio de comunicación predominante es la radio: sólo en los municipios más populosos, como Concepción o Tafí Viejo, hay sitios de noticias en internet.</t>
+  </si>
+  <si>
+    <t>En el proceso de relevamiento se encontraron en esos departamentos páginas informativas de Facebook autogestionadas en su mayoría por una sola persona con escasa o nula formación en el oficio periodístico. En esta tendencia de los medios unipersonales autogestionados como diarios digitales en páginas web, blogs o “multimedios”, las personas se apropian de las diferentes plataformas de internet, principalmente Facebook y Youtube, y producen o ponen en circulación información de interés local, e información nacional o provincial. Esta modalidad si bien encuentra un importante crecimiento, su desarrollo es intermitente e irregular, y su impacto en las audiencias no es significativo.</t>
+  </si>
+  <si>
+    <t>La investigación detectó 40 medios en total, y 23, más de la mitad, pertenecen a las ciudades de San Luis y Villa Mercedes. Un dato interesante es que en varios medios -sobre todo radios- los propietarios cumplen el rol de periodistas y conductores, aunque la cantidad mayoritaria de periodistas por medio son sólo dos. Muchas de esas emisoras baja la transmisión de estaciones de la ciudad de San Luis y Buenos Aires para complementar su programación. El 72,5 % de los responsables de medios respondieron por sí mismos la encuesta. El resto debió ser contestado por el encuestador ante la falta de respuesta a la reiterada solicitud.</t>
+  </si>
+  <si>
+    <t>Luego podrían agruparse ciudades como El Calafate, Río Turbio y 28 de Noviembre (cuenca carbonífera), Pico Truncado, Las Heras, Puerto San Julián y Puerto Deseado, como un segundo grupo de ciudades con similar cantidad de población. Y en tercer lugar ciudades más pequeñas (Los Antiguos, Gobernador Gregores, Perito Moreno o Puerto Santa Cruz) entre otras. Aquí la situación es diferente. Menos medios y mayor presencia de medios oficiales (muchos de ellos de carácter estatal-municipal), o la retransmisión de los medios públicos de la capital provincial.</t>
+  </si>
+  <si>
+    <t>Vale destacar también la existencia de iniciativas particulares de gran alcance (por su contenido) que quedaron afuera del estudio por no contar con al menos un periodista empleado. Tanto en la capital, como en el resto de los municipios y comisiones, estos se convirtieron en un canal de “visibilización” de problemáticas que los medios más importantes no exponen.</t>
+  </si>
+  <si>
+    <t>En Ushuaia, por ejemplo, es habitual la cercanía entre empresarios de medios y funcionarios públicos. Esa proximidad impide o desalienta el desarrollo de investigaciones que rocen o incomoden al poder. Por supuesto que hay excepciones: ciertos profesionales intentan realizar el trabajo sin mezclarse ni laboral ni ideológicamente con los gobernantes de turno. Pero desafortunadamente hay un número creciente de periodistas que trabajan como asesores de prensa de la dirigencia política y esta influencia se siente en el clima de libertad de expresión.</t>
+  </si>
+  <si>
+    <t>Un caso singular es Yerba Buena, una de las ciudades que más ha crecido en las últimas décadas y la que, con sus countries y urbanizaciones cerradas, concentra a la franja de población de mayor poder adquisitivo. Este municipio importante -pegado a San Miguel de Tucumán- casi no tiene medios de comunicación locales. Si bien en Yerba Buena está situado Canal 10, la emisora de televisión pública de propiedad del Gobierno y de la Universidad Nacional de Tucumán dotada de una de las plantillas de periodistas más grandes después del diario La Gaceta, este medio mira hacia la capital y su agenda es de corte “provincial”. El contenido informativo de los yerbabuenenses depende, en definitiva, de la atención que le dispensen los medios situados en San Miguel de Tucumán.</t>
+  </si>
+  <si>
+    <t>Un aspecto que no ha podido verificarse a partir de las respuestas del formulario de los medios que integran el ecosistema en la provincia de Salta es el nivel real de la dependencia con la pauta oficial (nacional, provincial y municipal). El 70 % expresó que recibe algún tipo de ingreso del Estado, y el 40% de los medios mencionó que ese ingreso significa la mitad o más de la mitad de sus ingresos totales. Un caso particular son los canales de televisión por cable que se sostienen con el abono mensual. Entre los comentarios recogidos muchos manifestaron modificaciones en las políticas de distribución de la publicidad oficial del Gobierno provincial a partir de comienzos del 2020 y que desde esa modificación de la política no reciben pauta.</t>
+  </si>
+  <si>
+    <t>Muchos entrevistados respondieron sobre el alcance técnico de la señal de aire y no acerca de la cobertura periodística: confundieron el concepto.</t>
+  </si>
+  <si>
+    <t>El acceso a los medios de comunicación por parte de la comunidad rural es excepcional. Las radios AM se transforman en la única posibilidad junto a las conexiones de DirecTV que puedan tener en sus establecimientos ganaderos (generalmente en la casa del propietario de la estancia). Pero también hay viejos aparatos de radio para que el personal rural acceda a los aún presentes “mensajes para el hombre de campo”. Aquí el acceso a la información local está sumamente condicionado.</t>
+  </si>
+  <si>
+    <t>Los portales digitales comenzaron a monetizar con Google por su contenido. Se trata de una alternativa potable, aunque todavía poco explorada, como alternativa de sustento o complemento de la pauta publicitaria tradicional.</t>
+  </si>
+  <si>
+    <t>La mayoría de los medios encuestados cuenta con redacciones integradas por entre dos y cinco periodistas. Estos generalmente desempeñan su trabajo a cambio de comisiones publicitarias. Un caso singular fue la radio municipal de La Cocha donde, según dijeron, trabajan 15 periodistas.</t>
+  </si>
+  <si>
+    <t>En cuanto a la relación laboral de los periodistas con los medios, en general predomina la informalidad. El 36% de los medios encuestados manifestó tener en relación de dependencia algún trabajador de prensa. Puede encontrarse un mayor grado de formalidad en el empleo del periodista en los grandes medios, y en algunos medianos de Salta y de grandes poblados urbanos. Si se focaliza en el resto de los departamentos de la provincia, los medios prácticamente no incorporan en su planta de empleados a los trabajadores de prensa, sino que canjean el trabajo (conducción en el noticiero central) por un espacio en la grilla de programación o un porcentaje de la pauta (comercial u oficial) que el periodista pueda gestionar.</t>
+  </si>
+  <si>
+    <t>Sólo el 27% de los periodistas está en relación de dependencia, por lo que 73% de los periodistas de San Luis se encuentra en situación de precarización laboral. El 30% vende publicidad para pagar su labor y el 27 % factura como monotributista, el nuevo modo en que los medios mantienen una relación legal con sus periodistas, sin tener que formalizarla.</t>
+  </si>
+  <si>
+    <t>El acceso a internet también es vital para comprender los consumos de información. Hay una mejor conexión y mayor velocidad de transmisión de datos en las grandes ciudades, y escasa o nula cobertura en localidades más pequeñas. Por ejemplo, en El Chaltén sólo funcionan los teléfonos de la empresa Movistar con una deficiencia notable. Sin embargo, frente al glaciar Perito Moreno, hay buena conexión a internet independientemente del proveedor del servicio telefónico. En síntesis, la deuda pendiente en la provincia de Santa Cruz es mejorar de manera urgente la conectividad, no solo en las grandes ciudades, sino también en las pequeñas y en las poblaciones rurales, que la reclaman y merecen en este siglo XXI.</t>
+  </si>
+  <si>
+    <t>Entre poderosos -en todo sentido- y precarios hay una gran cantidad de medios en la provincia. La mayoría, como era de esperarse, concentrados en las ciudades principales. Aun así, independientemente de su capacidad y ubicación geográfica, la información no varía demasiado entre uno y otro. El ecosistema informativo santiagueño no exhibe una gran diversidad, lo que podría revelar un desierto en cuanto a temas y a su tratamiento.</t>
+  </si>
+  <si>
+    <t>En Tucumán queda un diario impreso, La Gaceta. Se trata de una cabecera centenaria que en los últimos tiempos aceleró su transformación a un multimedios que distribuye la información por casi todas las plataformas disponibles -sólo carece del formato radio-. Esta empresa periodística influye en la determinación de la agenda noticiosa y en la opinión pública: muchos medios, en especial las señales radiales, directamente dan lectura a sus publicaciones. Aún con el declive de la prensa gráfica y la existencia de canales de televisión consolidados con programación propia, la penetración de La Gaceta sigue siendo intensa y es un rasgo clave para entender cómo fluyen las noticias en Tucumán.</t>
+  </si>
+  <si>
+    <t>Resultó una sorpresa que la plataforma más elegida fuese un perfil de Facebook. Del diálogo con los responsables de los medios surge que la red social es una herramienta importante para la interacción con los oyentes.</t>
+  </si>
+  <si>
+    <t>En términos de capacidad de contar la realidad local, pareciera que ello sólo está asegurado en la capital y, en menor medida, en algún municipio del Gran San Miguel de Tucumán, como Tafí Viejo. Con la excepción de Concepción, en el sur, el periodismo parece muy débil y limitado en el resto de la provincia, donde el acceso a los fondos públicos -y a la dirigencia política- deviene determinante. Un aspecto relevante del panorama tucumano es que, por su tamaño pequeño, muchos medios consideran que llegan “a todo el territorio provincial” aunque las localidades ubicadas fuera del corredor central, en el este y en el oeste, presentan un aislamiento de proporciones significativas. Las noticias locales, en suma, narran principalmente la vida de la capital.</t>
+  </si>
+  <si>
+    <t>El 45% de los encuestados expresó que de lunes a viernes transmiten contenido local por lo que las audiencias quedan “huérfanas” durante el fin de semana.</t>
+  </si>
+  <si>
+    <t>Otro dato llamativo fue la reticencia a brindar detalles vinculados con la pauta oficial. Un 70% de los medios dijo tener pauta del Estado, pero el 40%, no quiso o no supo responder sobre el porcentaje que esos ingresos significaban para el sostenimiento de cada medio. Esto alcanza al mismo Diario de la República, el medio que visiblemente mayor cantidad de ingresos recibe del sector público en concepto de pauta oficial, pero también en cuanto a edictos y distintas publicaciones del Gobierno provincial (convocatorias, licitaciones, junta de clasificación docente, etcétera). Su directora periodística se disculpó de no poder brindar esos datos.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Para poder dar cuenta del ecosistema de medios en la provincia de Salta partimos de asumir una primera distinción entre el departamento Capital donde se encuentra la ciudad de Salta y el resto de los departamentos; una segunda distinción se puede establecer entre las ciudades cabeceras de departamento y el resto de los municipios que lo integran, y una tercera diferenciación la encontramos entre departamentos con mayor población urbana (Rosario de Lerma, Cerrillos, Rosario de la Frontera, Metán, Orán, San Martín) y aquellos con poblados rurales dispersos.
+Una segunda caracterización que podemos establecer es por tamaño de estructura y cobertura del proyecto. En esta clasificación encontramos como categorías los “medios grandes” que son los tradicionales diarios, canales de televisión y radios AM con una nutrida planta de profesionales (de entre 10 a 20 periodistas), y con una cobertura amplia en términos de audiencia y de territorio. En segundo lugar, están los medios de estructuras medianas como radios FM, canales de televisión de aire o cable, y medios gráficos impresos y digitales con una penetración en audiencias segmentadas y coberturas que alcanzan a las localidades del área metropolitana de Salta. En tercer lugar aparecen los proyectos periodísticos más pequeños, con menos de cuatro periodistas en el plantel hasta medios individuales con alcance local, o una audiencia muy específica y acotada.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">El departamento Capital alberga un frondoso y diverso bosque de proyectos periodísticos. En ese ecosistema interactúan medios grandes, medianos y pequeños. Un aspecto que generó cierto asombro fue la escasa presencia de medios y de periodistas en los departamentos próximos a la Capital, particularmente en los de Cerrillos y La Caldera. En principio podría parecer que las necesidades informativas del área metropolitana de Salta estarían cubiertas por el diverso ecosistema de medios de la ciudad capital. Sin embargo, las problemáticas de los departamentos de ese ámbito no son cubiertas por los medios capitalinos, lo que derivaría en una precaria cobertura de información local.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Otro aspecto que sorprendió fue la también escasa cantidad de medios y de periodistas en los departamentos de Metán y Rosario de la Frontera. En estos departamentos, al igual que en los del área metropolitana de Salta por sus características económicas, demográficas y culturales que sustentan buenas condiciones para el desarrollo del periodismo local, se esperaría una mayor presencia de esta actividad. Donde sorprendió la cantidad y diversidad de medios fue en los departamentos San Martín, Orán y Rosario de Lerma.
+Finalmente se corroboraron las sospechas de los desiertos informativos en los departamentos con mayor población rural. Aquí el medio local que predomina es la radio municipal con dos a tres periodistas, aunque también se verificó la presencia de radios privadas, pero en ellas la estructura de trabajadores de prensa es más precaria. Los requerimientos informativos en estos territorios son cubiertos por la radio AM que emite desde Salta. En el caso de la televisión, lo que predomina es la conexión mediante cable y sistema satelital.
+En el proceso de relevamiento se encontraron en esos departamentos páginas informativas de Facebook autogestionadas en su mayoría por una sola persona con escasa o nula formación en el oficio periodístico. En esta tendencia de los medios unipersonales autogestionados como diarios digitales en páginas web, blogs o “multimedios”, las personas se apropian de las diferentes plataformas de internet, principalmente Facebook y Youtube, y producen o ponen en circulación información de interés local, e información nacional o provincial. Esta modalidad si bien encuentra un importante crecimiento, su desarrollo es intermitente e irregular, y su impacto en las audiencias no es significativo.
+Un aspecto que no ha podido verificarse a partir de las respuestas del formulario de los medios que integran el ecosistema en la provincia de Salta es el nivel real de la dependencia con la pauta oficial (nacional, provincial y municipal). El 70 % expresó que recibe algún tipo de ingreso del Estado, y el 40% de los medios mencionó que ese ingreso significa la mitad o más de la mitad de sus ingresos totales. Un caso particular son los canales de televisión por cable que se sostienen con el abono mensual. Entre los comentarios recogidos muchos manifestaron modificaciones en las políticas de distribución de la publicidad oficial del Gobierno provincial a partir de comienzos del 2020 y que desde esa modificación de la política no reciben pauta.
+En cuanto a la relación laboral de los periodistas con los medios, en general predomina la informalidad. El 36% de los medios encuestados manifestó tener en relación de dependencia algún trabajador de prensa. Puede encontrarse un mayor grado de formalidad en el empleo del periodista en los grandes medios, y en algunos medianos de Salta y de grandes poblados urbanos. Si se focaliza en el resto de los departamentos de la provincia, los medios prácticamente no incorporan en su planta de empleados a los trabajadores de prensa, sino que canjean el trabajo (conducción en el noticiero central) por un espacio en la grilla de programación o un porcentaje de la pauta (comercial u oficial) que el periodista pueda gestionar.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La provincia de San Juan está ubicada al centro oeste de la Argentina; tiene una población de 680.427 habitantes y está dividida en 19 departamentos, cada uno con su respectivo municipio. La mayoría de la población se concentra en el Gran San Juan, que abarca los departamentos Capital, Santa Lucía, Rivadavia, Rawson y Chimbas. De la misma manera están distribuidos los medios de comunicación más grandes de la provincia. La capital sanjuanina concentra a los canales de televisión, diarios y radios que pueden llegar a todo el territorio.
+En los departamentos alejados de la ciudad principal, como Iglesia, Valle Fértil, San Martín y 25 de Mayo, la cantidad de medios disminuye drásticamente, del mismo modo que la cantidad de periodistas que emplea cada proyecto periodístico. Un caso distinto es el de Caucete, una localidad alejada del Gran San Juan que, sin embargo, presenta 15 medios de comunicación entre radios, diarios digitales y canales de televisión.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Las estaciones de radio predominan en las comunidades más distantes. En ellas, la información de servicio para el vecino es primordial. En estos medios, el 50% del contenido está vinculado a la vida de los municipios donde tienen asiento. La mayoría de las emisoras de estos lugares nació para transmitir información parroquial y, luego, incorporaron otro tipo de información. En las zonas de la precordillera de la provincia, por ejemplo, la radio sigue siendo una forma de comunicación entre los pobladores: son frecuentes los mensajes relativos al manejo de los animales; a pedidos de solidaridad y a asuntos domésticos. En estos lugares fue necesario hacer la encuesta de forma telefónica.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">La pauta oficial se dirige de un modo intenso a financiar los medios del Gran San Juan. Esto se ve reflejado en la cantidad de periodistas que las empresas de la Capital contratan; los sueldos más elevados que pagan y el hecho de que “blanquean” el empleo de la mayoría de los trabajadores. En los departamentos alejados la radio se hace “a pulmón”, a veces con un solo periodista por emisora, que trabaja por la comisión que obtiene de las ventas de publicidad.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La provincia de San Luis tiene 9 departamentos, y 65 municipios o comisiones municipales. Según los datos del censo 2010, la provincia contaba con 432.310 (hoy estimada en más de medió millón) de pobladores, de los cuales 383.340 correspondían a la población urbana y 48.970 a la rural. Entre los departamentos Juan Martín de Pueyrredón y General Pedernera concentran más del 70% de la población: sus ciudades cabecera, San Luis (capital) y Villa Mercedes, respectivamente, son las de mayor cantidad de habitantes de la provincia. Estas dos ciudades concentran la mayor cantidad de medios. Por una cuestión metodológica, se encuestaron 12 de la capital y 11 de Villa Mercedes.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">En la capital tienen asiento los dos principales medios de la provincia, LV 90 Canal 13, el único canal de aire, de carácter estatal, y el Diario de la República, único medio gráfico, que pertenece al grupo empresario de la familia gobernante desde el inicio de la democracia: su directora es la hija del gobernador Alberto Rodríguez Saá. Entre el canal y el diario emplean casi al 40% de los periodistas de medios incluidos en esta investigación y se destacan del resto en cuanto a las condiciones laborales aunque presentan una limitación editorial porque siguen la línea oficial del Gobierno de la Provincia. También en la capital provincial se asienta un importante número de radios, entre las que sobresale FM Popular, con una buena planta de periodistas y una importante cobertura de aire. También hay dos empresas de TV por cable con contenido periodístico propio.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>En Villa Mercedes sucede algo similar: aunque no existen medios impresos (hay una corresponsalía de El Diario de la República), sí hay un número importante de radios y dos canales de TV por cable con contenido informativo local.
+Otra particularidad de San Luis es que sus cabeceras de departamento no siempre son las localidades más importantes en cuanto a la actividad económica o cantidad de población. Tal el caso de Junín, donde la localidad más importante es Villa de Merlo, y Chacabuco, donde Tilisarao tiene mayor relevancia que Concarán, incluso en cantidad de medios. En ambos casos hay cercanía entre las localidades (entre 10 y 20 km). Villa de Merlo y Tilisarao, además de duplicar en cantidad de radios a las cabeceras, también cuentan con el servicio de TV por cable con contenido informativo local.
+En el Departamento Belgrano su cabecera no tiene medios de comunicación, pero otras localidades con mucha más actividad económica y población, como Nogolí y Villa de la Quebrada, sí disponen al menos de una radio. En este departamento se incluyó en la muestra un portal web cuya cobertura informativa abarca a todas las localidades de Belgrano. Lo mismo se consideró con un portal web del Departamento Ayacucho con asiento en Quines, pero con información departamental. También resultó excepcional incorporar un programa de TV de la localidad de Tilisarao en el Departamento Chacabuco por la influencia en la localidad cabecera ubicada a pocos kilómetros.
+La investigación detectó 40 medios en total, y 23, más de la mitad, pertenecen a las ciudades de San Luis y Villa Mercedes. Un dato interesante es que en varios medios -sobre todo radios- los propietarios cumplen el rol de periodistas y conductores, aunque la cantidad mayoritaria de periodistas por medio son sólo dos. Muchas de esas emisoras baja la transmisión de estaciones de la ciudad de San Luis y Buenos Aires para complementar su programación. El 72,5 % de los responsables de medios respondieron por sí mismos la encuesta. El resto debió ser contestado por el encuestador ante la falta de respuesta a la reiterada solicitud.
+Muchos entrevistados respondieron sobre el alcance técnico de la señal de aire y no acerca de la cobertura periodística: confundieron el concepto.
+Sólo el 27% de los periodistas está en relación de dependencia, por lo que 73% de los periodistas de San Luis se encuentra en situación de precarización laboral. El 30% vende publicidad para pagar su labor y el 27 % factura como monotributista, el nuevo modo en que los medios mantienen una relación legal con sus periodistas, sin tener que formalizarla.
+Resultó una sorpresa que la plataforma más elegida fuese un perfil de Facebook. Del diálogo con los responsables de los medios surge que la red social es una herramienta importante para la interacción con los oyentes.
+El 45% de los encuestados expresó que de lunes a viernes transmiten contenido local por lo que las audiencias quedan “huérfanas” durante el fin de semana.
+Otro dato llamativo fue la reticencia a brindar detalles vinculados con la pauta oficial. Un 70% de los medios dijo tener pauta del Estado, pero el 40%, no quiso o no supo responder sobre el porcentaje que esos ingresos significaban para el sostenimiento de cada medio. Esto alcanza al mismo Diario de la República, el medio que visiblemente mayor cantidad de ingresos recibe del sector público en concepto de pauta oficial, pero también en cuanto a edictos y distintas publicaciones del Gobierno provincial (convocatorias, licitaciones, junta de clasificación docente, etcétera). Su directora periodística se disculpó de no poder brindar esos datos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La aplicación de la encuesta a los diferentes responsables de los medios de comunicación de la provincia originó diversas opiniones y no pasó inadvertida. Algunos celebraron la posibilidad de hablar -luego de mucho tiempo- y dejar por escrito situaciones históricas de exclusión en el acceso a la publicidad oficial por tener opiniones divergentes con el Gobierno provincial. Otros directamente respondieron sin emitir opinión y algunos eligieron no responder, aunque en un principio habían dicho que sí lo harían.
+Muy pocos de los que no respondieron argumentaron su posición. Pero quedó en evidencia el miedo a expresar opiniones diferentes y a dejar por escrito determinada información, aunque fuere para una encuesta nacional que no persigue juzgar a nadie por sus pensamientos u opiniones, sino exclusivamente tratar de recopilar datos sobre el ecosistema de la información periodística.
+Esta encuesta también despertó las ganas de hablar de parte de varios propietarios de medios que señalaron -entre otros inconvenientes- la falta de recursos humanos calificados para ejercer el periodismo y, a la vez, la necesidad de contar sus propias historias de vida. Otros cuestionaron la presencia de FOPEA ya que no compartían la posición de esa organización.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">La situación del empleo en la provincia (mayoritaria relación de dependencia con el Estado) se replica en la gran cantidad de medios de comunicación que dependen de la pauta publicitaria que administra el Gobierno de turno. Muchos de los trabajadores de los medios son empleados públicos con dependencia de los gobiernos municipales, provinciales o nacional.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Río Gallegos y Caleta Olivia son las dos ciudades que concentran a la mayoría de la población, y por ende, las que presentan la mayor cantidad de medios de comunicación. Aquí la misma diversidad de medios genera que haya diferentes voces para todos los públicos. En términos de la investigación “frondosos bosques informativos”, pero la mayoría de ellos con un denominador común: la disputa por la pauta publicitaria oficial.
+Luego podrían agruparse ciudades como El Calafate, Río Turbio y 28 de Noviembre (cuenca carbonífera), Pico Truncado, Las Heras, Puerto San Julián y Puerto Deseado, como un segundo grupo de ciudades con similar cantidad de población. Y en tercer lugar ciudades más pequeñas (Los Antiguos, Gobernador Gregores, Perito Moreno o Puerto Santa Cruz) entre otras. Aquí la situación es diferente. Menos medios y mayor presencia de medios oficiales (muchos de ellos de carácter estatal-municipal), o la retransmisión de los medios públicos de la capital provincial.
+El acceso a los medios de comunicación por parte de la comunidad rural es excepcional. Las radios AM se transforman en la única posibilidad junto a las conexiones de DirecTV que puedan tener en sus establecimientos ganaderos (generalmente en la casa del propietario de la estancia). Pero también hay viejos aparatos de radio para que el personal rural acceda a los aún presentes “mensajes para el hombre de campo”. Aquí el acceso a la información local está sumamente condicionado.
+El acceso a internet también es vital para comprender los consumos de información. Hay una mejor conexión y mayor velocidad de transmisión de datos en las grandes ciudades, y escasa o nula cobertura en localidades más pequeñas. Por ejemplo, en El Chaltén sólo funcionan los teléfonos de la empresa Movistar con una deficiencia notable. Sin embargo, frente al glaciar Perito Moreno, hay buena conexión a internet independientemente del proveedor del servicio telefónico. En síntesis, la deuda pendiente en la provincia de Santa Cruz es mejorar de manera urgente la conectividad, no solo en las grandes ciudades, sino también en las pequeñas y en las poblaciones rurales, que la reclaman y merecen en este siglo XXI.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Del mismo modo que sucede en otras provincias, en el sur de Santa Fe existe un distrito que se diferencia claramente del resto: se trata del departamento Rosario, que concentra no sólo un gran número de medios (algo que, en todo caso, está relativamente acorde a su población), sino también a los de mayor “calidad” desde el punto de vista laboral. Por ello se entiende empresas que tienen a sus empleados en relación de dependencia y donde los periodistas se dedican exclusivamente a la tarea periodística. Pero basta con salir de la ciudad para que esta realidad sea absolutamente distinta.
+Un dato que vale la pena subrayar es el hecho de que los medios rosarinos son consumidos por quienes residen en Rosario y, también, por gran parte de la población de la zona sur. Por ejemplo: un habitante de Pavón Arriba -departamento Constitución- visitará un portal rosarino antes que uno de su propio departamento. Ese fenómeno resulta relevante a la luz de que la provincia cuenta con 157 ciudades distribuidas en 9 departamentos, es decir, hay muchas localidades al interior de cada uno de estos. Presumiblemente ello podría deberse a algo que por la propia naturaleza de la investigación quedó fuera de estudio, pero que merece la pena atender en el futuro, y es que en la mayoría de las localidades de Santa Fe predominan las radios FM que, en principio, se dedican a la reproducción de música y que, quizá, repasan los titulares de los medios escritos.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Mientras todos los medios rosarinos declararon tener al menos cinco periodistas en sus planteles, en los ocho departamentos restantes de la zona sur únicamente seis medios detectados exhiben esa característica. El 20% de los medios “no-rosarinos” dispone de una sola persona que, además de hacer las veces de periodista, se encarga de otras tareas relativas a la administración. Resulta muy difícil plantear un medio con calidad y diversidad informativa con estas condiciones.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">También llama la atención la forma de contratación de los periodistas. Sólo 19 de 67 medios encuestados registraron la relación de dependencia, es decir, el 28% del total. Al analizar pormenorizadamente este porcentaje se obtiene que hay un periodista “en blanco” en uno de cada cinco medios con 15 o menos años de antigüedad, en tanto que en los medios de más de 15 años de antigüedad esa cifra se duplica. Nueve de esos 19 medios se encuentran en el departamento Rosario.
+En cuanto a la pauta oficial y con las reservas que corresponde guardar respecto de este aspecto sensible, de la encuesta surgió que menos del 5% de los consultados consideró que la pauta oficial significaba un 50% o más de sus ingresos corrientes. A diferencia de otras provincias, en Santa Fe no existen de manera generalizada medios propios de los gobiernos locales. En la enorme mayoría de los casos, los proyectos periodísticos tienen que ver con emprendimientos privados de diversa índole. En muchos casos, la comunicación de los municipios y comunas se canaliza a través de las redes sociales oficiales (Facebook, fundamentalmente).
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Con 133.007 kilómetros cuadrados, Santa Fe es la décima provincia del país en términos de superficie. Su larga extensión despliega departamentos muy distintos entre sí. Desde el centro hacia el norte se aprecian una mayor cantidad de distritos con más territorio y menos población, algo que se relaciona directamente con la actividad agrícola. Ello impacta en las características y la distribución de los medios de comunicación, que se concentran en las ciudades principales de distritos como La Capital, Las Colonias, Castellanos, San Justo, San Cristóbal y San Javier. El número disminuye de modo ostensible en General Obligado, Garay, 9 de Julio y Vera.
+Los medios que más abundan en el centro y norte de la provincia son los portales digitales de noticias y las estaciones de radios. Las webs son más jóvenes que las radios, pero en general todas cuentan con perfiles de Facebook. La mayoría de los portales digitales están vinculados a un diario, una radio o un canal de televisión. Hay escasa presencia de medios exclusivamente digitales.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">La pauta privada aparece como el sostén principal de los medios, aunque genera dudas el hecho de que en la mayoría de los casos no fue posible establecer qué porcentaje del ingreso total genera la pauta oficial. Muchos dueños y responsables de pequeños medios refirieron fuera de la encuesta que la pandemia del coronavirus golpeó sus economías y dificulta el mantenimiento de las organizaciones.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">En las dos grandes ciudades del centro y norte, Santa Fe y Rafaela, hay radios universitarias, un tipo diferente de medio que vale la pena destacar. En los lugares más pequeños aparecen los medios a cargo de mutuales y cooperativas. Los temas referidos a emprendedores y energías renovables son escasamente abordados por las agendas informativas. Los medios situados en ciudades chicas tienden a contentarse con la reproducción de información de índole provincial o nacional. En Santa Fe marcan la cancha, entre otros, La Capital, Aire de Santa Fe, Rosario 3 y El Litoral
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Los medios más antiguos y tradicionales siguen siendo fuente permanente de consulta informativa en toda la provincia. Sin embargo, en las localidades más alejadas de las ciudades principales, los periódicos digitales, impresos y -en especial- las radios, adquieren peso por su contenido local y regional.
+Es sorprendente la cantidad de radios que existen, aunque la producción noticiosa es muy escasa. La mayoría de ellas cuenta con uno o dos periodistas, lo que dificulta la tarea de recolección y difusión de datos. No obstante, se las ingenian para subsistir. Buena parte del contenido de los medios de las ciudades y localidades del "interior" reproduce el de los medios dominantes y el de las oficinas de comunicación del Gobierno. En los medios gráficos esto se puede apreciar mejor, ya que las reproducciones de los mensajes oficiales son, en ocasiones, textuales.
+En las zonas rurales, la radio mantiene su liderazgo. Las encuestas revelan que no sólo difunde información de interés general, sino también propia de aquellas zonas donde la señal de teléfono e internet es escasa.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">En las ciudades cabecera de Departamento, la influencia del Estado municipal es bastante evidente, no sólo a través de la pauta, sino por los medios pertenecientes a su estructura. En el caso de las radios municipales (medio predominante), estas disponen de mayor capacidad para la producción informativa. Si bien los temas de la agenda exceden las actividades gubernamentales, ninguno está fuera de la línea oficial.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Fuera de Santiago y La Banda, las pautas publicitarias tienen montos que se consideran irrisorios. Los responsables afirman que las sostienen para cubrir parte del mantenimiento del medio o el pago de algún servicio, como la energía eléctrica, en el caso de las radios.
+Vale destacar también la existencia de iniciativas particulares de gran alcance (por su contenido) que quedaron afuera del estudio por no contar con al menos un periodista empleado. Tanto en la capital, como en el resto de los municipios y comisiones, estos se convirtieron en un canal de “visibilización” de problemáticas que los medios más importantes no exponen.
+Los portales digitales comenzaron a monetizar con Google por su contenido. Se trata de una alternativa potable, aunque todavía poco explorada, como alternativa de sustento o complemento de la pauta publicitaria tradicional.
+Entre poderosos -en todo sentido- y precarios hay una gran cantidad de medios en la provincia. La mayoría, como era de esperarse, concentrados en las ciudades principales. Aun así, independientemente de su capacidad y ubicación geográfica, la información no varía demasiado entre uno y otro. El ecosistema informativo santiagueño no exhibe una gran diversidad, lo que podría revelar un desierto en cuanto a temas y a su tratamiento.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El universo de medios de comunicación de la provincia de Tierra del Fuego incluye a actores tradicionales, y a formatos novedosos y multiplataforma que cubren en forma continua la agenda de las ciudades -Río Grande, Tolhuin y Ushuaia-. Hay cinco diarios de circulación provincial, uno de ellos de distribución gratuita: todos tienen sus versiones digitales.
+En el caso de las estaciones radiales, el espectro es aún más amplio, con producciones locales y propias en la mayoría de los casos; producciones independientes a través de la cesión de espacios y dos emisoras de Radio Nacional, una situada en Ushuaia y otra en la ciudad de Río Grande, además de la radio que pertenece a la Universidad Nacional de Tierra del Fuego (UNTDF). Por otra parte, en la provincia hay cuatro canales de televisión, dos estatales y dos privados.
+La proliferación de portales de noticias es un fenómeno que creció en la última década sobre la base de la publicidad institucional de los distintos organismos legislativos y ejecutivos de las tres ciudades. Estos medios fueron difíciles de abordar porque no resultó sencillo encontrar a sus editores responsables -en algunos supuestos no había ni siquiera un correo electrónico de contacto- y porque luego se negaron a participar del sondeo. Es evidente que estas webs tienen ingresos significativos de parte del Estado.
+La misma falta de cooperación hubo en las oficinas de comunicación del Concejo Deliberante de Río Grande; de las municipalidades de Ushuaia, Tolhuin y Río Grande, y del Gobierno de la provincia. No hubo una explicación para la decisión de no brindar datos sobre los medios de comunicación que podría haber sido de mucha utilidad a la hora de determinar los criterios de distribución de la pauta oficial.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">En relación a los desiertos informativos específicamente, el trabajo corroboró que en muchos casos, en particular en portales de noticias, falta producción propia, original y con contenido local que sirva a los lectores y lectoras para conocer su realidad más próxima. En general, las gacetillas de prensa de organismos oficiales, tanto legislativos como gubernamentales, inundan las webs locales. Lo mismo sucede con los diarios en papel, aunque estos aún brindan cobertura de hechos policiales a modo de producción propia. Además, son muy pocos los medios fueguinos con perspectiva de género. Se diría que al periodismo le falta capacitación en derechos humanos, aunque de a poco se empiezan a percibir algunos cambios.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">En Ushuaia, por ejemplo, es habitual la cercanía entre empresarios de medios y funcionarios públicos. Esa proximidad impide o desalienta el desarrollo de investigaciones que rocen o incomoden al poder. Por supuesto que hay excepciones: ciertos profesionales intentan realizar el trabajo sin mezclarse ni laboral ni ideológicamente con los gobernantes de turno. Pero desafortunadamente hay un número creciente de periodistas que trabajan como asesores de prensa de la dirigencia política y esta influencia se siente en el clima de libertad de expresión.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La investigación de los desiertos informativos tuvo lugar en Tucumán durante los últimos meses de 2020 y principios de 2021. Fue la jurisdicción elegida para iniciar la exploración del fenómeno en el país y probar la herramienta diseñada para recopilar los datos. Los resultados obtenidos en esta provincia permitieron hacer ajustes y sentaron las bases para continuar la investigación en los 23 distritos restantes de la Argentina.
+Este desembarco sin experiencia previa dejó numerosos aprendizajes, y empezó a esclarecer la incertidumbre y los interrogantes que generó el objetivo de desarrollar un proyecto inédito en el país. Tucumán pareció un buen lugar para inaugurar la búsqueda de desiertos por motivos prácticos y teóricos. Ocurre que aquí reside la coordinadora periodística del programa, Irene Benito. Y, si bien se trata de la provincia más pequeña del país, resulta también la de mayor densidad demográfica. Como corazón geográfico del Noroeste Argentino, presenta características culturales, económicas y sociales que la distinguen en la región. Es, además, la jurisdicción con más amplia trayectoria universitaria de la zona y un reducto acreditado de periodismo local. De este micromundo salieron reputadas figuras del oficio desde Juan Bautista Alberdi a Tomás Eloy Martínez.
+El hecho de trabajar en medios de comunicación en San Miguel de Tucumán facilitó la tarea de contacto con los actores del ecosistema informativo de la zona. En el caso de los municipios del interior se apeló a la siguiente estrategia: buscar y dialogar con los directores de comunicación pública de cada municipalidad para que ellos abrieran las puertas de los medios de sus respectivos municipios. La velocidad de las respuestas fue variada, pero, en general, hubo más colaboración que la esperada. Algunos representantes de los medios completaron inmediatamente el formulario, y otros se demoraron entre tres y cinco días, lo que obligó a reforzar el pedido mediante un llamado de teléfono.
+Estos intercambios revelaron las inquietudes de los referentes de los medios. Algunos tenían temor de brindar cierta información referida a la publicidad oficial o a la forma de relación laboral que tenían los periodistas. Otros consultaron si habría algún beneficio por participar en la encuesta. Fue necesario, entonces, explicar claramente de qué se trataba el proyecto y cuáles eran sus objetivos.
+De las respuestas obtenidas se desprende que, en Tucumán, el medio de comunicación predominante es la radio: sólo en los municipios más populosos, como Concepción o Tafí Viejo, hay sitios de noticias en internet.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Un caso singular es Yerba Buena, una de las ciudades que más ha crecido en las últimas décadas y la que, con sus countries y urbanizaciones cerradas, concentra a la franja de población de mayor poder adquisitivo. Este municipio importante -pegado a San Miguel de Tucumán- casi no tiene medios de comunicación locales. Si bien en Yerba Buena está situado Canal 10, la emisora de televisión pública de propiedad del Gobierno y de la Universidad Nacional de Tucumán dotada de una de las plantillas de periodistas más grandes después del diario La Gaceta, este medio mira hacia la capital y su agenda es de corte “provincial”. El contenido informativo de los yerbabuenenses depende, en definitiva, de la atención que le dispensen los medios situados en San Miguel de Tucumán.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">La mayoría de los medios encuestados cuenta con redacciones integradas por entre dos y cinco periodistas. Estos generalmente desempeñan su trabajo a cambio de comisiones publicitarias. Un caso singular fue la radio municipal de La Cocha donde, según dijeron, trabajan 15 periodistas.
+En Tucumán queda un diario impreso, La Gaceta. Se trata de una cabecera centenaria que en los últimos tiempos aceleró su transformación a un multimedios que distribuye la información por casi todas las plataformas disponibles -sólo carece del formato radio-. Esta empresa periodística influye en la determinación de la agenda noticiosa y en la opinión pública: muchos medios, en especial las señales radiales, directamente dan lectura a sus publicaciones. Aún con el declive de la prensa gráfica y la existencia de canales de televisión consolidados con programación propia, la penetración de La Gaceta sigue siendo intensa y es un rasgo clave para entender cómo fluyen las noticias en Tucumán.
+En términos de capacidad de contar la realidad local, pareciera que ello sólo está asegurado en la capital y, en menor medida, en algún municipio del Gran San Miguel de Tucumán, como Tafí Viejo. Con la excepción de Concepción, en el sur, el periodismo parece muy débil y limitado en el resto de la provincia, donde el acceso a los fondos públicos -y a la dirigencia política- deviene determinante. Un aspecto relevante del panorama tucumano es que, por su tamaño pequeño, muchos medios consideran que llegan “a todo el territorio provincial” aunque las localidades ubicadas fuera del corredor central, en el este y en el oeste, presentan un aislamiento de proporciones significativas. Las noticias locales, en suma, narran principalmente la vida de la capital.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>santa-fe-sur</t>
+  </si>
+  <si>
+    <t>santa-fe-norte</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1639,6 +2236,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="8"/>
       <color theme="7" tint="-0.249977111117893"/>
@@ -1655,6 +2258,19 @@
       <sz val="10"/>
       <color theme="7" tint="-0.249977111117893"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1696,7 +2312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1755,19 +2371,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1986,10 +2615,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:AC76"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="T1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1999,7 +2628,7 @@
     <col min="9" max="20" width="128.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2060,8 +2689,35 @@
       <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U1" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="X1" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA1" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB1" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2122,8 +2778,35 @@
       <c r="T2" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U2" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="X2" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y2" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z2" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA2" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB2" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC2" s="27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -2184,8 +2867,35 @@
       <c r="T3" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U3" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="X3" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y3" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z3" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA3" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB3" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC3" s="27" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,8 +2956,35 @@
       <c r="T4" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.15">
+      <c r="U4" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="X4" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y4" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z4" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA4" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB4" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC4" s="27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="60" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>64</v>
@@ -2306,8 +3043,35 @@
       <c r="T5" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.15">
+      <c r="U5" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="V5" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="W5" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="X5" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y5" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z5" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA5" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB5" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC5" s="27" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="60" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>83</v>
@@ -2366,8 +3130,35 @@
       <c r="T6" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.15">
+      <c r="U6" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="V6" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="W6" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="X6" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y6" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z6" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA6" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB6" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC6" s="27" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>102</v>
@@ -2426,8 +3217,35 @@
       <c r="T7" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.15">
+      <c r="U7" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="V7" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="X7" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y7" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z7" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA7" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB7" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="AC7" s="27" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="60" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>121</v>
@@ -2486,8 +3304,35 @@
       <c r="T8" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.15">
+      <c r="U8" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="V8" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="W8" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="X8" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y8" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z8" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA8" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB8" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC8" s="27" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="60" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
         <v>140</v>
@@ -2544,8 +3389,31 @@
       <c r="T9" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="48" hidden="1" x14ac:dyDescent="0.15">
+      <c r="U9" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="V9" s="25"/>
+      <c r="W9" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="X9" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y9" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB9" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC9" s="27" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="48" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>158</v>
@@ -2594,8 +3462,29 @@
         <v>171</v>
       </c>
       <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.15">
+      <c r="U10" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="V10" s="25"/>
+      <c r="W10" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="X10" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB10" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC10" s="26" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="60" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="12" t="s">
         <v>172</v>
@@ -2630,8 +3519,27 @@
       <c r="R11" s="13"/>
       <c r="S11" s="10"/>
       <c r="T11" s="11"/>
-    </row>
-    <row r="12" spans="1:20" ht="48" hidden="1" x14ac:dyDescent="0.15">
+      <c r="U11" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="V11" s="25"/>
+      <c r="W11" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="X11" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="27" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="48" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>179</v>
@@ -2664,8 +3572,27 @@
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="11"/>
-    </row>
-    <row r="13" spans="1:20" ht="48" hidden="1" x14ac:dyDescent="0.15">
+      <c r="U12" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="V12" s="25"/>
+      <c r="W12" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="X12" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="27" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2692,8 +3619,21 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="1:20" ht="36" hidden="1" x14ac:dyDescent="0.15">
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="27" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="36" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2720,8 +3660,19 @@
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="10"/>
-    </row>
-    <row r="15" spans="1:20" ht="24" hidden="1" x14ac:dyDescent="0.15">
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+    </row>
+    <row r="15" spans="1:29" ht="24" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -2746,8 +3697,19 @@
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
-    </row>
-    <row r="16" spans="1:20" ht="405" x14ac:dyDescent="0.15">
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+    </row>
+    <row r="16" spans="1:29" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>193</v>
       </c>
@@ -2808,8 +3770,35 @@
       <c r="T16" s="15" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U16" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="V16" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="W16" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="X16" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y16" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z16" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="AA16" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB16" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC16" s="32" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -2830,8 +3819,17 @@
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
       <c r="T17" s="16"/>
-    </row>
-    <row r="18" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+    </row>
+    <row r="18" spans="1:29" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -2852,8 +3850,17 @@
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
-    </row>
-    <row r="19" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+    </row>
+    <row r="19" spans="1:29" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2874,8 +3881,17 @@
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
       <c r="T19" s="16"/>
-    </row>
-    <row r="20" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+    </row>
+    <row r="20" spans="1:29" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2896,6 +3912,184 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+    </row>
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+    </row>
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+    </row>
+    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+    </row>
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+    </row>
+    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+    </row>
+    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+    </row>
+    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V40" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V45" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V46" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="22:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V49" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" spans="22:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V55" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="56" spans="22:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V56" t="s">
+        <v>312</v>
+      </c>
+      <c r="W56" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="22:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V57" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="58" spans="22:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V58" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="59" spans="22:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V59" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" spans="22:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V62" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="63" spans="22:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V63" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V70" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="75" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V75" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="22:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V76" t="s">
+        <v>321</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2910,9 +4104,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2920,7 +4116,7 @@
     <col min="3" max="3" width="97.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>209</v>
       </c>
@@ -2931,7 +4127,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -2941,8 +4137,11 @@
       <c r="C2" s="19" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -2952,8 +4151,11 @@
       <c r="C3" s="19" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
@@ -2963,8 +4165,11 @@
       <c r="C4" s="19" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
@@ -2974,8 +4179,11 @@
       <c r="C5" s="19" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
@@ -2985,8 +4193,11 @@
       <c r="C6" s="19" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
@@ -2996,8 +4207,11 @@
       <c r="C7" s="19" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
         <v>7</v>
       </c>
@@ -3007,8 +4221,11 @@
       <c r="C8" s="19" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
         <v>8</v>
       </c>
@@ -3018,8 +4235,11 @@
       <c r="C9" s="19" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
@@ -3029,8 +4249,11 @@
       <c r="C10" s="19" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
         <v>10</v>
       </c>
@@ -3040,8 +4263,11 @@
       <c r="C11" s="19" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>11</v>
       </c>
@@ -3051,8 +4277,11 @@
       <c r="C12" s="19" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
         <v>12</v>
       </c>
@@ -3062,8 +4291,11 @@
       <c r="C13" s="19" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
@@ -3073,8 +4305,11 @@
       <c r="C14" s="19" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
         <v>14</v>
       </c>
@@ -3084,8 +4319,11 @@
       <c r="C15" s="19" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
         <v>15</v>
       </c>
@@ -3095,8 +4333,11 @@
       <c r="C16" s="19" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
         <v>16</v>
       </c>
@@ -3106,8 +4347,11 @@
       <c r="C17" s="19" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -3117,8 +4361,11 @@
       <c r="C18" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
         <v>18</v>
       </c>
@@ -3128,8 +4375,11 @@
       <c r="C19" s="19" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
         <v>19</v>
       </c>
@@ -3139,8 +4389,11 @@
       <c r="C20" s="19" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
         <v>250</v>
       </c>
@@ -3151,7 +4404,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
         <v>253</v>
       </c>
@@ -3162,7 +4415,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
         <v>256</v>
       </c>
@@ -3173,7 +4426,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
         <v>259</v>
       </c>
@@ -3184,7 +4437,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
         <v>262</v>
       </c>
@@ -3195,7 +4448,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
         <v>265</v>
       </c>
@@ -3206,7 +4459,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18" t="s">
         <v>268</v>
       </c>
@@ -3217,7 +4470,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
         <v>271</v>
       </c>
@@ -3228,7 +4481,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
         <v>274</v>
       </c>
@@ -3278,8 +4531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6B737E-083A-E745-86D9-CA2D7DC48055}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4226,4 +5479,495 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58140F43-C75B-C94D-806C-8811672E825B}">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="409.6" x14ac:dyDescent="0.15">
+      <c r="A2" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" t="str">
+        <f>I2</f>
+        <v>El departamento Capital alberga un frondoso y diverso bosque de proyectos periodísticos. En ese ecosistema interactúan medios grandes, medianos y pequeños. Un aspecto que generó cierto asombro fue la escasa presencia de medios y de periodistas en los departamentos próximos a la Capital, particularmente en los de Cerrillos y La Caldera. En principio podría parecer que las necesidades informativas del área metropolitana de Salta estarían cubiertas por el diverso ecosistema de medios de la ciudad capital. Sin embargo, las problemáticas de los departamentos de ese ámbito no son cubiertas por los medios capitalinos, lo que derivaría en una precaria cobertura de información local.</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="409.6" x14ac:dyDescent="0.15">
+      <c r="A3" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" t="str">
+        <f>I3</f>
+        <v>Las estaciones de radio predominan en las comunidades más distantes. En ellas, la información de servicio para el vecino es primordial. En estos medios, el 50% del contenido está vinculado a la vida de los municipios donde tienen asiento. La mayoría de las emisoras de estos lugares nació para transmitir información parroquial y, luego, incorporaron otro tipo de información. En las zonas de la precordillera de la provincia, por ejemplo, la radio sigue siendo una forma de comunicación entre los pobladores: son frecuentes los mensajes relativos al manejo de los animales; a pedidos de solidaridad y a asuntos domésticos. En estos lugares fue necesario hacer la encuesta de forma telefónica.</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="409.6" x14ac:dyDescent="0.15">
+      <c r="A4" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" t="str">
+        <f>H4</f>
+        <v>En la capital tienen asiento los dos principales medios de la provincia, LV 90 Canal 13, el único canal de aire, de carácter estatal, y el Diario de la República, único medio gráfico, que pertenece al grupo empresario de la familia gobernante desde el inicio de la democracia: su directora es la hija del gobernador Alberto Rodríguez Saá. Entre el canal y el diario emplean casi al 40% de los periodistas de medios incluidos en esta investigación y se destacan del resto en cuanto a las condiciones laborales aunque presentan una limitación editorial porque siguen la línea oficial del Gobierno de la Provincia. También en la capital provincial se asienta un importante número de radios, entre las que sobresale FM Popular, con una buena planta de periodistas y una importante cobertura de aire. También hay dos empresas de TV por cable con contenido periodístico propio.</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="409.6" x14ac:dyDescent="0.15">
+      <c r="A5" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="E5" t="str">
+        <f>J5</f>
+        <v>La situación del empleo en la provincia (mayoritaria relación de dependencia con el Estado) se replica en la gran cantidad de medios de comunicación que dependen de la pauta publicitaria que administra el Gobierno de turno. Muchos de los trabajadores de los medios son empleados públicos con dependencia de los gobiernos municipales, provinciales o nacional.</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="33" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="409.6" x14ac:dyDescent="0.15">
+      <c r="A6" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" t="str">
+        <f>I6</f>
+        <v>Mientras todos los medios rosarinos declararon tener al menos cinco periodistas en sus planteles, en los ocho departamentos restantes de la zona sur únicamente seis medios detectados exhiben esa característica. El 20% de los medios “no-rosarinos” dispone de una sola persona que, además de hacer las veces de periodista, se encarga de otras tareas relativas a la administración. Resulta muy difícil plantear un medio con calidad y diversidad informativa con estas condiciones.</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="409.6" x14ac:dyDescent="0.15">
+      <c r="A7" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="E7" t="str">
+        <f>I7</f>
+        <v>La pauta privada aparece como el sostén principal de los medios, aunque genera dudas el hecho de que en la mayoría de los casos no fue posible establecer qué porcentaje del ingreso total genera la pauta oficial. Muchos dueños y responsables de pequeños medios refirieron fuera de la encuesta que la pandemia del coronavirus golpeó sus economías y dificulta el mantenimiento de las organizaciones.</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="32" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="409.6" x14ac:dyDescent="0.15">
+      <c r="A8" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" t="str">
+        <f>J8</f>
+        <v>En las ciudades cabecera de Departamento, la influencia del Estado municipal es bastante evidente, no sólo a través de la pauta, sino por los medios pertenecientes a su estructura. En el caso de las radios municipales (medio predominante), estas disponen de mayor capacidad para la producción informativa. Si bien los temas de la agenda exceden las actividades gubernamentales, ninguno está fuera de la línea oficial.</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="32" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="409.6" x14ac:dyDescent="0.15">
+      <c r="A9" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="E9" t="str">
+        <f>K9</f>
+        <v>En relación a los desiertos informativos específicamente, el trabajo corroboró que en muchos casos, en particular en portales de noticias, falta producción propia, original y con contenido local que sirva a los lectores y lectoras para conocer su realidad más próxima. En general, las gacetillas de prensa de organismos oficiales, tanto legislativos como gubernamentales, inundan las webs locales. Lo mismo sucede con los diarios en papel, aunque estos aún brindan cobertura de hechos policiales a modo de producción propia. Además, son muy pocos los medios fueguinos con perspectiva de género. Se diría que al periodismo le falta capacitación en derechos humanos, aunque de a poco se empiezan a percibir algunos cambios.</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="32" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="409.6" x14ac:dyDescent="0.15">
+      <c r="A10" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="E10" t="str">
+        <f>L10</f>
+        <v>Un caso singular es Yerba Buena, una de las ciudades que más ha crecido en las últimas décadas y la que, con sus countries y urbanizaciones cerradas, concentra a la franja de población de mayor poder adquisitivo. Este municipio importante -pegado a San Miguel de Tucumán- casi no tiene medios de comunicación locales. Si bien en Yerba Buena está situado Canal 10, la emisora de televisión pública de propiedad del Gobierno y de la Universidad Nacional de Tucumán dotada de una de las plantillas de periodistas más grandes después del diario La Gaceta, este medio mira hacia la capital y su agenda es de corte “provincial”. El contenido informativo de los yerbabuenenses depende, en definitiva, de la atención que le dispensen los medios situados en San Miguel de Tucumán.</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="32" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/data/Informes.xlsx
+++ b/data/Informes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Documents/github/desiertos/side/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7126BA31-6E41-9343-A861-30369EAE1427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F89432-5F2C-9445-A2E9-44F5F515C2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="textos_informes" sheetId="1" r:id="rId1"/>
@@ -2617,8 +2617,8 @@
   </sheetPr>
   <dimension ref="A1:AC76"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5485,7 +5485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58140F43-C75B-C94D-806C-8811672E825B}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
